--- a/liufu_web_auto/common/testdata.xlsx
+++ b/liufu_web_auto/common/testdata.xlsx
@@ -18,14 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>python</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,6 +109,14 @@
       </rPr>
       <t>百度搜索</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +466,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -476,34 +476,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
